--- a/public/database.xlsx
+++ b/public/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jayesh\Downloads\tt\mycollegetransport_bolt-main - Copy - Copy\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2765E57-55B2-4D29-9AA2-5CF4FD314F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E77184-4964-4550-A85D-E6BF64E77601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>user_id</t>
   </si>
@@ -84,9 +84,6 @@
     <t>driver_id</t>
   </si>
   <si>
-    <t>driverr</t>
-  </si>
-  <si>
     <t>umesh</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>admin_id</t>
   </si>
   <si>
-    <t>adminn</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
@@ -135,14 +129,80 @@
     <t>cse</t>
   </si>
   <si>
-    <t>ise</t>
+    <t>1JB10</t>
+  </si>
+  <si>
+    <t>CSE</t>
+  </si>
+  <si>
+    <t>1JB11</t>
+  </si>
+  <si>
+    <t>Saurya</t>
+  </si>
+  <si>
+    <t>1JB23CS080</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>1JB12</t>
+  </si>
+  <si>
+    <t>1JB13</t>
+  </si>
+  <si>
+    <t>1JB14</t>
+  </si>
+  <si>
+    <t>1JB15</t>
+  </si>
+  <si>
+    <t>1JB16</t>
+  </si>
+  <si>
+    <t>1JB17</t>
+  </si>
+  <si>
+    <t>1JB18</t>
+  </si>
+  <si>
+    <t>1JB19</t>
+  </si>
+  <si>
+    <t>1JB20</t>
+  </si>
+  <si>
+    <t>1JB21</t>
+  </si>
+  <si>
+    <t>1JB22</t>
+  </si>
+  <si>
+    <t>Krish</t>
+  </si>
+  <si>
+    <t>John S Mark</t>
+  </si>
+  <si>
+    <t>ISE</t>
+  </si>
+  <si>
+    <t>MECH</t>
+  </si>
+  <si>
+    <t>1JB23CS073</t>
+  </si>
+  <si>
+    <t>1JB23CS075</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +215,12 @@
       <color rgb="FF151515"/>
       <name val="Open Sans"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -460,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,13 +561,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -524,13 +590,13 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -612,13 +678,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -626,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>1012000</v>
@@ -637,19 +703,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>1012000</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H9">
         <v>3</v>
-      </c>
-      <c r="I9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -657,7 +720,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>1012000</v>
@@ -666,16 +729,208 @@
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>9052004</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>1012000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>1012000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14">
+        <v>1012000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15">
+        <v>1012000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>1012000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>1012000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18">
+        <v>1012000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19">
+        <v>1012000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>1012000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21">
+        <v>1012000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>1012000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23">
+        <v>1012000</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -685,7 +940,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,15 +1004,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6">
-        <v>1234</v>
-      </c>
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -770,14 +1017,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -791,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>1234</v>

--- a/public/database.xlsx
+++ b/public/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jayesh\Downloads\tt\mycollegetransport_bolt-main - Copy - Copy\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E77184-4964-4550-A85D-E6BF64E77601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BECD37-C4B3-4626-9ED3-26496699FE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>user_id</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>1JB23CS075</t>
+  </si>
+  <si>
+    <t>prakash</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -939,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C2">
         <v>1234</v>
@@ -975,7 +978,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>1234</v>
@@ -986,7 +989,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>1234</v>
@@ -997,14 +1000,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>1234</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="1"/>
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>1234</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
